--- a/extdata/toyFiles/FROC/bad/frocCr-03.xlsx
+++ b/extdata/toyFiles/FROC/bad/frocCr-03.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Dev/GitHub/PyJafroc/extdata/toyFiles/FROC/bad/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22D3C8D8-2259-2746-B3BF-E40B6AF64F16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70BD7849-4519-FD4A-B18A-469A22564B3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="10000" windowHeight="18000" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="10000" windowHeight="16600" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="lL" sheetId="3" r:id="rId1"/>
@@ -58,9 +58,6 @@
     <t>2</t>
   </si>
   <si>
-    <t>TP_Rating</t>
-  </si>
-  <si>
     <t>CAseID</t>
   </si>
   <si>
@@ -71,6 +68,9 @@
   </si>
   <si>
     <t>NLRating</t>
+  </si>
+  <si>
+    <t>LLRating</t>
   </si>
 </sst>
 </file>
@@ -566,7 +566,7 @@
   <dimension ref="A1:H32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D41" sqref="D41"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -591,7 +591,7 @@
         <v>1</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
@@ -1139,7 +1139,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -1491,7 +1491,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:C24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
@@ -1503,13 +1503,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>9</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
